--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3193.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3193.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.043919815848017</v>
+        <v>1.146142244338989</v>
       </c>
       <c r="B1">
-        <v>1.700946079772007</v>
+        <v>2.149334907531738</v>
       </c>
       <c r="C1">
-        <v>4.948416123992899</v>
+        <v>2.91516375541687</v>
       </c>
       <c r="D1">
-        <v>5.343462525293074</v>
+        <v>3.486250638961792</v>
       </c>
       <c r="E1">
-        <v>1.735808253739639</v>
+        <v>1.637382626533508</v>
       </c>
     </row>
   </sheetData>
